--- a/Abigail/Ejercicio09/Dijkstra.xlsx
+++ b/Abigail/Ejercicio09/Dijkstra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnADM\Documents\ESCUELA\GitHub\Analisis-Algoritmos\Abigail\Ejercicio09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7485E89-FE92-4465-8090-CF0EFA53C3B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8A2142-3713-4A34-A716-2AD08122D86E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{8FB4B915-EC4A-4BE7-8A94-E1D30AFEF296}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>A</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>(8, 3)</t>
+  </si>
+  <si>
+    <t>(9, 7)</t>
   </si>
 </sst>
 </file>
@@ -209,15 +212,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92E64A-6FA8-4E0B-A10E-89E46390F28A}">
   <dimension ref="B3:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,30 +548,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -584,39 +587,39 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="4">
         <v>6</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="4">
         <v>7</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="4">
         <v>8</v>
+      </c>
+      <c r="K6" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="3"/>
@@ -635,7 +638,7 @@
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3"/>
@@ -656,7 +659,7 @@
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3"/>
@@ -679,7 +682,7 @@
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="3"/>
@@ -704,7 +707,9 @@
       <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -746,7 +751,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -799,30 +804,30 @@
       <c r="K15" s="3"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
@@ -968,36 +973,36 @@
       <c r="J29" s="3"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
@@ -1063,9 +1068,9 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
@@ -1080,9 +1085,9 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -1097,9 +1102,9 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
@@ -1114,9 +1119,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
@@ -1131,9 +1136,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -1148,9 +1153,9 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
@@ -1165,9 +1170,9 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
@@ -1182,9 +1187,9 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
@@ -1199,86 +1204,86 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>11</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>12</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
@@ -1380,36 +1385,36 @@
       <c r="H59" s="3"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
     </row>
     <row r="64" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
@@ -1493,15 +1498,15 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
     </row>
     <row r="67" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
@@ -1516,15 +1521,15 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
     </row>
     <row r="68" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
@@ -1539,15 +1544,15 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
     </row>
     <row r="69" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -1562,15 +1567,15 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
     </row>
     <row r="70" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
@@ -1585,15 +1590,15 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
     </row>
     <row r="71" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
@@ -1608,15 +1613,15 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
     </row>
     <row r="72" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
@@ -1631,15 +1636,15 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
     </row>
     <row r="73" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
@@ -1654,15 +1659,15 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
     </row>
     <row r="74" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
@@ -1677,15 +1682,15 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
     </row>
     <row r="75" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
@@ -1700,199 +1705,199 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
